--- a/tests/samples/admin_umag.xlsx
+++ b/tests/samples/admin_umag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C758B26B-2EBD-4C1E-ABFE-5FFE8CF6E835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445AFE2-550B-46F9-997B-54BC0B27EC2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25590" yWindow="2070" windowWidth="21780" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
   <si>
     <t>Title</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>95% CI (mg)</t>
+  </si>
+  <si>
+    <t>CI in mass histories</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -385,8 +391,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000\ 000\ 000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
-    <numFmt numFmtId="175" formatCode="0.000\ 0"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000\ 0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -555,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -650,43 +656,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,17 +1030,17 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -1060,9 +1067,9 @@
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -1103,41 +1110,41 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1153,11 +1160,11 @@
         <v>21</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1181,10 +1188,10 @@
       <c r="D11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1197,8 +1204,8 @@
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1853,7 +1860,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,7 +1889,7 @@
       <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -1900,8 +1907,8 @@
       <c r="E2" s="35">
         <v>0</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="N2" s="53"/>
+      <c r="F2" s="45"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
@@ -1919,8 +1926,8 @@
       <c r="E3" s="35">
         <v>-1.9910000000000001</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="N3" s="53"/>
+      <c r="F3" s="45"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
@@ -1938,8 +1945,8 @@
       <c r="E4" s="35">
         <v>-1.9910000000000001</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="N4" s="53"/>
+      <c r="F4" s="45"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
@@ -1957,8 +1964,8 @@
       <c r="E5" s="35">
         <v>0</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="N5" s="53"/>
+      <c r="F5" s="45"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
@@ -1976,8 +1983,8 @@
       <c r="E6" s="35">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="N6" s="53"/>
+      <c r="F6" s="45"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
@@ -1995,8 +2002,8 @@
       <c r="E7" s="35">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="N7" s="53"/>
+      <c r="F7" s="45"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
@@ -2014,8 +2021,8 @@
       <c r="E8" s="35">
         <v>0</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="N8" s="53"/>
+      <c r="F8" s="45"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
@@ -2033,8 +2040,8 @@
       <c r="E9" s="35">
         <v>-5.5190000000000001</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="N9" s="53"/>
+      <c r="F9" s="45"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
@@ -2052,8 +2059,8 @@
       <c r="E10" s="35">
         <v>-5.5190000000000001</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="N10" s="53"/>
+      <c r="F10" s="45"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
@@ -2071,8 +2078,8 @@
       <c r="E11" s="35">
         <v>0</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="N11" s="53"/>
+      <c r="F11" s="45"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
@@ -2090,8 +2097,8 @@
       <c r="E12" s="35">
         <v>4.7629999999999999</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="N12" s="53"/>
+      <c r="F12" s="45"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
@@ -2109,8 +2116,8 @@
       <c r="E13" s="35">
         <v>4.7629999999999999</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="N13" s="53"/>
+      <c r="F13" s="45"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="29" t="s">
@@ -2128,8 +2135,8 @@
       <c r="E14" s="35">
         <v>0</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="N14" s="53"/>
+      <c r="F14" s="45"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
@@ -2147,8 +2154,8 @@
       <c r="E15" s="35">
         <v>2.7029999999999998</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="N15" s="53"/>
+      <c r="F15" s="45"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
@@ -2166,15 +2173,15 @@
       <c r="E16" s="35">
         <v>2.7029999999999998</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="N16" s="53"/>
+      <c r="F16" s="45"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" s="35"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="54"/>
+      <c r="F18" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2183,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D148F2-7C3F-4D51-BA01-6094ADD4F25D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P23"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2196,7 +2203,7 @@
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="35" t="s">
         <v>102</v>
       </c>
@@ -2224,9 +2231,15 @@
       <c r="K1" s="35" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="55"/>
+      <c r="L1" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
       <c r="B2">
         <v>10000</v>
       </c>
@@ -2236,7 +2249,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="46">
         <v>10000.085866240001</v>
       </c>
       <c r="F2">
@@ -2252,9 +2265,16 @@
         <f>G2/1000</f>
         <v>0.84191300000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="55"/>
+      <c r="L2" s="42">
+        <v>0.84191399999999994</v>
+      </c>
+      <c r="M2">
+        <f>K2-L2</f>
+        <v>-9.9999999991773336E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
       <c r="B3">
         <v>10000</v>
       </c>
@@ -2264,7 +2284,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="46">
         <v>10000.044098218001</v>
       </c>
       <c r="F3">
@@ -2280,9 +2300,16 @@
         <f t="shared" ref="K3:K11" si="0">G3/1000</f>
         <v>0.84255400000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="55"/>
+      <c r="L3" s="42">
+        <v>0.84255400000000003</v>
+      </c>
+      <c r="M3" s="42">
+        <f t="shared" ref="M3:M11" si="1">K3-L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
       <c r="B4">
         <v>10000</v>
       </c>
@@ -2292,7 +2319,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="46">
         <v>10000.015992981</v>
       </c>
       <c r="F4">
@@ -2308,9 +2335,16 @@
         <f t="shared" si="0"/>
         <v>0.85037400000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="55"/>
+      <c r="L4" s="42">
+        <v>0.85037368837708471</v>
+      </c>
+      <c r="M4" s="42">
+        <f t="shared" si="1"/>
+        <v>3.116229153610206E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
       <c r="B5">
         <v>10000</v>
       </c>
@@ -2320,7 +2354,7 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="46">
         <v>10000.150514306</v>
       </c>
       <c r="F5">
@@ -2336,9 +2370,16 @@
         <f t="shared" si="0"/>
         <v>64.186025999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="55"/>
+      <c r="L5" s="42">
+        <v>64.18602605707224</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" si="1"/>
+        <v>-5.7072242043432198E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
       <c r="B6">
         <v>10000</v>
       </c>
@@ -2348,7 +2389,7 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="46">
         <v>9999.9027681660009</v>
       </c>
       <c r="F6">
@@ -2364,9 +2405,16 @@
         <f t="shared" si="0"/>
         <v>0.84190599999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
+      <c r="L6" s="42">
+        <v>0.84190599999999993</v>
+      </c>
+      <c r="M6" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
       <c r="B7">
         <v>10000</v>
       </c>
@@ -2376,7 +2424,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="46">
         <v>10000.016499648</v>
       </c>
       <c r="F7">
@@ -2392,9 +2440,16 @@
         <f t="shared" si="0"/>
         <v>28.814467</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="55"/>
+      <c r="L7">
+        <v>28.814466884851551</v>
+      </c>
+      <c r="M7" s="42">
+        <f t="shared" si="1"/>
+        <v>1.1514844899807031E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
       <c r="B8">
         <v>10000</v>
       </c>
@@ -2404,7 +2459,7 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="46">
         <v>9999.9741830179992</v>
       </c>
       <c r="F8">
@@ -2420,9 +2475,16 @@
         <f t="shared" si="0"/>
         <v>0.84190900000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
+      <c r="L8">
+        <v>0.84190799999999999</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="1"/>
+        <v>1.0000000000287557E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
       <c r="B9">
         <v>10000</v>
       </c>
@@ -2432,7 +2494,7 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="46">
         <v>10000.042358572</v>
       </c>
       <c r="F9">
@@ -2448,9 +2510,16 @@
         <f t="shared" si="0"/>
         <v>43.836285000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
+      <c r="L9">
+        <v>43.836285342311619</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>-3.423116154976924E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
       <c r="B10">
         <v>10000</v>
       </c>
@@ -2460,7 +2529,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="46">
         <v>10000.119090796001</v>
       </c>
       <c r="F10">
@@ -2476,9 +2545,16 @@
         <f t="shared" si="0"/>
         <v>20.269239000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="L10">
+        <v>20.26923914929991</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="1"/>
+        <v>-1.4929990754808387E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
       <c r="B11">
         <v>10000</v>
       </c>
@@ -2488,7 +2564,7 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="46">
         <v>10000.038388898</v>
       </c>
       <c r="F11">
@@ -2504,9 +2580,16 @@
         <f t="shared" si="0"/>
         <v>20.842508000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
+      <c r="L11">
+        <v>20.842508177843392</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="1"/>
+        <v>-1.7784338979254244E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
       <c r="B12">
         <v>10000</v>
       </c>
@@ -2516,7 +2599,7 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="46">
         <v>10000.00499293</v>
       </c>
       <c r="F12">
@@ -2534,9 +2617,10 @@
       <c r="J12" s="35" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
       <c r="B13">
         <v>10000</v>
       </c>
@@ -2546,7 +2630,7 @@
       <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="46">
         <v>10000.003261551001</v>
       </c>
       <c r="F13">
@@ -2564,9 +2648,10 @@
       <c r="J13" s="35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
+      <c r="M13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/samples/admin_umag.xlsx
+++ b/tests/samples/admin_umag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445AFE2-550B-46F9-997B-54BC0B27EC2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6402273-A3D9-400F-9DFC-469E6C77C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Correlations</t>
   </si>
   <si>
-    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or matrix of correlations</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Mass/2019/1330</t>
   </si>
   <si>
-    <t>quadratic drift</t>
-  </si>
-  <si>
     <t>10F.</t>
   </si>
   <si>
@@ -382,19 +376,42 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>linear drift</t>
+  </si>
+  <si>
+    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or 2x2 matrix of correlations</t>
+  </si>
+  <si>
+    <t>Correct for air density?</t>
+  </si>
+  <si>
+    <t>If true, calculate basis 8000 mass differences using measured air density. Requires densities and expansion coefficients for all masses.</t>
+  </si>
+  <si>
+    <t>Number of weights</t>
+  </si>
+  <si>
+    <t>(calculated automatically)</t>
+  </si>
+  <si>
+    <t>Expansion coeff (ppm/degC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000\ 000\ 000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.000\ 0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +464,15 @@
       <color rgb="FF63A35C"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,10 +584,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,11 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,11 +663,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,13 +677,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -690,13 +712,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{180191FF-D82B-4967-B923-A99B4CFC2312}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,9 +738,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -752,7 +778,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -858,7 +884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1008,58 +1034,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H14" sqref="H14:I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="51"/>
+      <c r="B1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="46"/>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1067,16 +1093,16 @@
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1088,12 +1114,12 @@
         <v>96240179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1102,140 +1128,174 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="48"/>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="43"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="48"/>
+      <c r="B8" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="43"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <f>COUNT(B15:B90)</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="str">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
         <f>CONCATENATE(B15,D15)</f>
         <v>10000KE</v>
       </c>
@@ -1243,19 +1303,20 @@
         <v>10000</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="24">
+        <v>63</v>
+      </c>
+      <c r="E15" s="21">
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="str">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
         <f t="shared" ref="A16:A24" si="0">CONCATENATE(B16,D16)</f>
         <v>10000KF</v>
       </c>
@@ -1263,79 +1324,83 @@
         <v>10000</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="24">
+        <v>64</v>
+      </c>
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="str">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KG</v>
       </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>50</v>
+      <c r="C17" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="24">
+        <v>65</v>
+      </c>
+      <c r="E17" s="21">
         <v>5.9839288481831343E-2</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="str">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KH</v>
       </c>
       <c r="B18" s="1">
         <v>10000</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>51</v>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="24">
+        <v>66</v>
+      </c>
+      <c r="E18" s="21">
         <v>32.090247883959208</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="str">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KI</v>
       </c>
       <c r="B19" s="1">
         <v>10000</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>52</v>
+      <c r="C19" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="24">
+        <v>67</v>
+      </c>
+      <c r="E19" s="21">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="str">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NE</v>
       </c>
@@ -1343,19 +1408,20 @@
         <v>10000</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="24">
+        <v>68</v>
+      </c>
+      <c r="E20" s="21">
         <v>14.401072946012587</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="str">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NF</v>
       </c>
@@ -1363,19 +1429,20 @@
         <v>10000</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="24">
+        <v>69</v>
+      </c>
+      <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="str">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NG</v>
       </c>
@@ -1383,19 +1450,20 @@
         <v>10000</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="24">
+        <v>70</v>
+      </c>
+      <c r="E22" s="21">
         <v>21.914093726239564</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="str">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NH</v>
       </c>
@@ -1403,19 +1471,20 @@
         <v>10000</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="24">
+        <v>71</v>
+      </c>
+      <c r="E23" s="21">
         <v>10.125873252565876</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="str">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NI</v>
       </c>
@@ -1423,18 +1492,19 @@
         <v>10000</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="24">
+        <v>72</v>
+      </c>
+      <c r="E24" s="21">
         <v>10.412735590378649</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="18"/>
@@ -1442,8 +1512,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="18"/>
@@ -1451,8 +1522,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="18"/>
@@ -1460,8 +1532,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="1"/>
       <c r="C28" s="18"/>
@@ -1469,8 +1542,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="1"/>
       <c r="C29" s="18"/>
@@ -1478,8 +1552,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="1"/>
       <c r="C30" s="18"/>
@@ -1487,8 +1562,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
       <c r="C31" s="18"/>
@@ -1496,8 +1572,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
       <c r="C32" s="18"/>
@@ -1505,8 +1582,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="1"/>
       <c r="C33" s="18"/>
@@ -1514,8 +1592,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="1"/>
       <c r="C34" s="18"/>
@@ -1523,8 +1602,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="1"/>
       <c r="C35" s="18"/>
@@ -1532,8 +1612,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="1"/>
       <c r="C36" s="18"/>
@@ -1541,8 +1622,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="1"/>
       <c r="C37" s="18"/>
@@ -1550,8 +1632,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="1"/>
       <c r="C38" s="18"/>
@@ -1559,8 +1642,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="1"/>
       <c r="C39" s="18"/>
@@ -1568,8 +1652,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="1"/>
       <c r="C40" s="18"/>
@@ -1577,8 +1662,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="1"/>
       <c r="C41" s="18"/>
@@ -1586,8 +1672,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="18"/>
@@ -1595,8 +1682,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="1"/>
       <c r="C43" s="18"/>
@@ -1604,8 +1692,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="1"/>
       <c r="C44" s="18"/>
@@ -1613,8 +1702,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="1"/>
       <c r="C45" s="18"/>
@@ -1622,8 +1712,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="1"/>
       <c r="C46" s="18"/>
@@ -1631,8 +1722,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="1"/>
       <c r="C47" s="18"/>
@@ -1640,8 +1732,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="1"/>
       <c r="C48" s="18"/>
@@ -1649,8 +1742,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="1"/>
       <c r="C49" s="18"/>
@@ -1658,8 +1752,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="1"/>
       <c r="C50" s="18"/>
@@ -1667,8 +1762,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="1"/>
       <c r="C51" s="18"/>
@@ -1676,8 +1772,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="1"/>
       <c r="C52" s="18"/>
@@ -1685,8 +1782,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="1"/>
       <c r="C53" s="18"/>
@@ -1694,8 +1792,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="1"/>
       <c r="C54" s="18"/>
@@ -1703,8 +1802,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="1"/>
       <c r="C55" s="18"/>
@@ -1712,9 +1812,11 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I7:N7"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1723,15 +1825,14 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{01945874-0008-4282-B6C2-E625359907CC}">
       <formula1>"auto select, linear drift, quadratic drift, cubic drift"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{CC1A72B7-6B51-40F3-85D2-3A3CBAB31B11}">
       <formula1>"NO, YES"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1742,112 +1843,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B5">
         <v>10000</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B6">
         <v>10000</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1857,331 +1949,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90266-F043-49C4-8086-1A7429301C9B}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="C2" s="28">
+        <v>1.3238097000000001E-2</v>
+      </c>
+      <c r="D2" s="29">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.9076542E-2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1.3238097000000001E-2</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C4" s="36">
+        <v>-3.0811903000000002E-2</v>
+      </c>
+      <c r="D4" s="37">
         <v>26</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E4">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="33">
+        <v>3.9097021000000003E-2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>26</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2.9076542E-2</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="F5" s="39"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="33">
+        <v>-0.11582920100000001</v>
+      </c>
+      <c r="D6" s="31">
         <v>26</v>
       </c>
-      <c r="E3" s="35">
-        <v>-1.9910000000000001</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="N3" s="43"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="40">
-        <v>-3.0811903000000002E-2</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="E6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.11409791</v>
+      </c>
+      <c r="D7" s="31">
         <v>26</v>
       </c>
-      <c r="E4" s="35">
-        <v>-1.9910000000000001</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="N4" s="43"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="E7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="37">
-        <v>3.9097021000000003E-2</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="B8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3.5127347000000003E-2</v>
+      </c>
+      <c r="D8" s="29">
         <v>26</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="N5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="F8" s="39"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="37">
-        <v>-0.11582920100000001</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="C9" s="33">
+        <v>-8.2610208000000004E-2</v>
+      </c>
+      <c r="D9" s="31">
         <v>26</v>
       </c>
-      <c r="E6" s="35">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="E9">
+        <v>-5.5190000000000001</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0.11409791</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="B10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="36">
+        <v>8.0867791999999994E-2</v>
+      </c>
+      <c r="D10" s="37">
         <v>26</v>
       </c>
-      <c r="E7" s="35">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="N7" s="43"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="E10">
+        <v>-5.5190000000000001</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="31">
-        <v>3.5127347000000003E-2</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="B11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="33">
+        <v>4.0836667E-2</v>
+      </c>
+      <c r="D11" s="31">
         <v>26</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="F11" s="39"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="37">
-        <v>-8.2610208000000004E-2</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C12" s="33">
+        <v>-1.2726667000000001E-2</v>
+      </c>
+      <c r="D12" s="31">
         <v>26</v>
       </c>
-      <c r="E9" s="35">
-        <v>-5.5190000000000001</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="E12">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="40">
-        <v>8.0867791999999994E-2</v>
-      </c>
-      <c r="D10" s="41">
+      <c r="B13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1.1004814999999999E-2</v>
+      </c>
+      <c r="D13" s="31">
         <v>26</v>
       </c>
-      <c r="E10" s="35">
-        <v>-5.5190000000000001</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="E13">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="37">
-        <v>4.0836667E-2</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="B14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.14725275500000001</v>
+      </c>
+      <c r="D14" s="29">
         <v>26</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="F14" s="39"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="37">
-        <v>-1.2726667000000001E-2</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C15" s="33">
+        <v>0.100496088</v>
+      </c>
+      <c r="D15" s="31">
         <v>26</v>
       </c>
-      <c r="E12" s="35">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="N12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="E15">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1.1004814999999999E-2</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="36">
+        <v>-0.10222206</v>
+      </c>
+      <c r="D16" s="37">
         <v>26</v>
       </c>
-      <c r="E13" s="35">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="31">
-        <v>0.14725275500000001</v>
-      </c>
-      <c r="D14" s="32">
-        <v>26</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="37">
-        <v>0.100496088</v>
-      </c>
-      <c r="D15" s="34">
-        <v>26</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="E16">
         <v>2.7029999999999998</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="40">
-        <v>-0.10222206</v>
-      </c>
-      <c r="D16" s="41">
-        <v>26</v>
-      </c>
-      <c r="E16" s="35">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="35"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="44"/>
+      <c r="F16" s="39"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,66 +2277,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D148F2-7C3F-4D51-BA01-6094ADD4F25D}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
       <c r="B2">
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="40">
         <v>10000.085866240001</v>
       </c>
       <c r="F2">
@@ -2265,7 +2352,7 @@
         <f>G2/1000</f>
         <v>0.84191300000000002</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2">
         <v>0.84191399999999994</v>
       </c>
       <c r="M2">
@@ -2273,18 +2360,18 @@
         <v>-9.9999999991773336E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="40">
         <v>10000.044098218001</v>
       </c>
       <c r="F3">
@@ -2296,30 +2383,30 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3">
         <f t="shared" ref="K3:K11" si="0">G3/1000</f>
         <v>0.84255400000000003</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3">
         <v>0.84255400000000003</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3">
         <f t="shared" ref="M3:M11" si="1">K3-L3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
       <c r="B4">
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="40">
         <v>10000.015992981</v>
       </c>
       <c r="F4">
@@ -2331,30 +2418,30 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.85037400000000007</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4">
         <v>0.85037368837708471</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4">
         <f t="shared" si="1"/>
         <v>3.116229153610206E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="40">
         <v>10000.150514306</v>
       </c>
       <c r="F5">
@@ -2366,30 +2453,30 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>64.186025999999998</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5">
         <v>64.18602605707224</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>-5.7072242043432198E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
       <c r="B6">
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>9999.9027681660009</v>
       </c>
       <c r="F6">
@@ -2401,30 +2488,30 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.84190599999999993</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6">
         <v>0.84190599999999993</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="40">
         <v>10000.016499648</v>
       </c>
       <c r="F7">
@@ -2436,30 +2523,30 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>28.814467</v>
       </c>
       <c r="L7">
         <v>28.814466884851551</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7">
         <f t="shared" si="1"/>
         <v>1.1514844899807031E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8">
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="40">
         <v>9999.9741830179992</v>
       </c>
       <c r="F8">
@@ -2471,30 +2558,30 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0.84190900000000002</v>
       </c>
       <c r="L8">
         <v>0.84190799999999999</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>1.0000000000287557E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="40">
         <v>10000.042358572</v>
       </c>
       <c r="F9">
@@ -2506,30 +2593,30 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>43.836285000000004</v>
       </c>
       <c r="L9">
         <v>43.836285342311619</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>-3.423116154976924E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10">
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="40">
         <v>10000.119090796001</v>
       </c>
       <c r="F10">
@@ -2541,30 +2628,30 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>20.269239000000002</v>
       </c>
       <c r="L10">
         <v>20.26923914929991</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>-1.4929990754808387E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11">
         <v>10000</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <v>10000.038388898</v>
       </c>
       <c r="F11">
@@ -2576,30 +2663,30 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>20.842508000000002</v>
       </c>
       <c r="L11">
         <v>20.842508177843392</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>-1.7784338979254244E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
       <c r="B12">
         <v>10000</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="46">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40">
         <v>10000.00499293</v>
       </c>
       <c r="F12">
@@ -2611,26 +2698,25 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13">
         <v>10000</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="46">
+        <v>94</v>
+      </c>
+      <c r="E13" s="40">
         <v>10000.003261551001</v>
       </c>
       <c r="F13">
@@ -2642,16 +2728,12 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/samples/admin_umag.xlsx
+++ b/tests/samples/admin_umag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6402273-A3D9-400F-9DFC-469E6C77C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F56B52C-17DB-42A1-8DC9-062F50085ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Title</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>Expansion coeff (ppm/degC)</t>
+  </si>
+  <si>
+    <t>Centre Height (mm)</t>
+  </si>
+  <si>
+    <t>u_height (mm)</t>
   </si>
 </sst>
 </file>
@@ -468,6 +474,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -685,39 +692,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,7 +1044,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I55"/>
+      <selection activeCell="I14" sqref="I14:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,14 +1063,14 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="46"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="51"/>
@@ -1093,9 +1100,9 @@
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1140,53 +1147,53 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1204,15 +1211,15 @@
       <c r="E9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1252,8 +1259,8 @@
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" t="s">
         <v>118</v>
       </c>
@@ -1264,6 +1271,9 @@
       <c r="F13" s="14" t="s">
         <v>119</v>
       </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1290,8 +1300,11 @@
       <c r="H14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I14" t="s">
-        <v>32</v>
+      <c r="I14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1314,6 +1327,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
@@ -1335,8 +1350,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KG</v>
@@ -1356,8 +1373,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KH</v>
@@ -1377,8 +1396,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KI</v>
@@ -1398,8 +1419,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NE</v>
@@ -1419,8 +1442,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NF</v>
@@ -1440,8 +1465,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NG</v>
@@ -1461,8 +1488,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NH</v>
@@ -1482,8 +1511,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NI</v>
@@ -1503,8 +1534,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="18"/>
@@ -1513,8 +1546,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="18"/>
@@ -1523,8 +1558,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="18"/>
@@ -1533,8 +1570,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="1"/>
       <c r="C28" s="18"/>
@@ -1543,8 +1582,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="1"/>
       <c r="C29" s="18"/>
@@ -1553,8 +1594,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="1"/>
       <c r="C30" s="18"/>
@@ -1563,8 +1606,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
       <c r="C31" s="18"/>
@@ -1573,8 +1618,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
       <c r="C32" s="18"/>
@@ -1583,8 +1630,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="1"/>
       <c r="C33" s="18"/>
@@ -1593,8 +1642,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="1"/>
       <c r="C34" s="18"/>
@@ -1603,8 +1654,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="1"/>
       <c r="C35" s="18"/>
@@ -1613,8 +1666,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="1"/>
       <c r="C36" s="18"/>
@@ -1623,8 +1678,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="1"/>
       <c r="C37" s="18"/>
@@ -1633,8 +1690,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="1"/>
       <c r="C38" s="18"/>
@@ -1643,8 +1702,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="1"/>
       <c r="C39" s="18"/>
@@ -1653,8 +1714,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="1"/>
       <c r="C40" s="18"/>
@@ -1663,8 +1726,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="1"/>
       <c r="C41" s="18"/>
@@ -1673,8 +1738,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="18"/>
@@ -1683,8 +1750,10 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="1"/>
       <c r="C43" s="18"/>
@@ -1693,8 +1762,10 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="1"/>
       <c r="C44" s="18"/>
@@ -1703,8 +1774,10 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="1"/>
       <c r="C45" s="18"/>
@@ -1713,8 +1786,10 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="1"/>
       <c r="C46" s="18"/>
@@ -1723,8 +1798,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="1"/>
       <c r="C47" s="18"/>
@@ -1733,8 +1810,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="1"/>
       <c r="C48" s="18"/>
@@ -1743,8 +1822,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="1"/>
       <c r="C49" s="18"/>
@@ -1753,8 +1834,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="1"/>
       <c r="C50" s="18"/>
@@ -1763,8 +1846,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="1"/>
       <c r="C51" s="18"/>
@@ -1773,8 +1858,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="1"/>
       <c r="C52" s="18"/>
@@ -1783,8 +1870,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="1"/>
       <c r="C53" s="18"/>
@@ -1793,8 +1882,10 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="1"/>
       <c r="C54" s="18"/>
@@ -1803,8 +1894,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="1"/>
       <c r="C55" s="18"/>
@@ -1813,6 +1906,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/tests/samples/admin_umag.xlsx
+++ b/tests/samples/admin_umag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.hawke\PycharmProjects\Mass-Circular-Weighing\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F445AFE2-550B-46F9-997B-54BC0B27EC2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F56B52C-17DB-42A1-8DC9-062F50085ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Title</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Correlations</t>
   </si>
   <si>
-    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or matrix of correlations</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Mass/2019/1330</t>
   </si>
   <si>
-    <t>quadratic drift</t>
-  </si>
-  <si>
     <t>10F.</t>
   </si>
   <si>
@@ -382,19 +376,48 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>linear drift</t>
+  </si>
+  <si>
+    <t>If relevant, include a matrix/list of correlations between standards (e.g. in build-up or build-down). Allowed options: None, or 2x2 matrix of correlations</t>
+  </si>
+  <si>
+    <t>Correct for air density?</t>
+  </si>
+  <si>
+    <t>If true, calculate basis 8000 mass differences using measured air density. Requires densities and expansion coefficients for all masses.</t>
+  </si>
+  <si>
+    <t>Number of weights</t>
+  </si>
+  <si>
+    <t>(calculated automatically)</t>
+  </si>
+  <si>
+    <t>Expansion coeff (ppm/degC)</t>
+  </si>
+  <si>
+    <t>Centre Height (mm)</t>
+  </si>
+  <si>
+    <t>u_height (mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000\ 000\ 000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.000\ 0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +470,16 @@
       <color rgb="FF63A35C"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,10 +591,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,11 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,11 +670,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,47 +684,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{180191FF-D82B-4967-B923-A99B4CFC2312}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,9 +745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -752,7 +785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -858,7 +891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1008,58 +1041,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I14" sqref="I14:J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="C1" s="53"/>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1067,16 +1100,16 @@
       <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1088,12 +1121,12 @@
         <v>96240179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1102,140 +1135,180 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="48"/>
+      <c r="B7" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="49"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="48"/>
+      <c r="B8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="49"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <f>COUNT(B15:B90)</f>
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="str">
+        <v>41</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
         <f>CONCATENATE(B15,D15)</f>
         <v>10000KE</v>
       </c>
@@ -1243,19 +1316,22 @@
         <v>10000</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="24">
+        <v>63</v>
+      </c>
+      <c r="E15" s="21">
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="str">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
         <f t="shared" ref="A16:A24" si="0">CONCATENATE(B16,D16)</f>
         <v>10000KF</v>
       </c>
@@ -1263,79 +1339,91 @@
         <v>10000</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="24">
+        <v>64</v>
+      </c>
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="str">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KG</v>
       </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>50</v>
+      <c r="C17" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="24">
+        <v>65</v>
+      </c>
+      <c r="E17" s="21">
         <v>5.9839288481831343E-2</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="str">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KH</v>
       </c>
       <c r="B18" s="1">
         <v>10000</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>51</v>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="24">
+        <v>66</v>
+      </c>
+      <c r="E18" s="21">
         <v>32.090247883959208</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="str">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000KI</v>
       </c>
       <c r="B19" s="1">
         <v>10000</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>52</v>
+      <c r="C19" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="24">
+        <v>67</v>
+      </c>
+      <c r="E19" s="21">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="str">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NE</v>
       </c>
@@ -1343,19 +1431,22 @@
         <v>10000</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="24">
+        <v>68</v>
+      </c>
+      <c r="E20" s="21">
         <v>14.401072946012587</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="str">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NF</v>
       </c>
@@ -1363,19 +1454,22 @@
         <v>10000</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="24">
+        <v>69</v>
+      </c>
+      <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="str">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NG</v>
       </c>
@@ -1383,19 +1477,22 @@
         <v>10000</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="24">
+        <v>70</v>
+      </c>
+      <c r="E22" s="21">
         <v>21.914093726239564</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="str">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NH</v>
       </c>
@@ -1403,19 +1500,22 @@
         <v>10000</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="24">
+        <v>71</v>
+      </c>
+      <c r="E23" s="21">
         <v>10.125873252565876</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="str">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10000NI</v>
       </c>
@@ -1423,18 +1523,21 @@
         <v>10000</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="24">
+        <v>72</v>
+      </c>
+      <c r="E24" s="21">
         <v>10.412735590378649</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="18"/>
@@ -1442,8 +1545,11 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="18"/>
@@ -1451,8 +1557,11 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="18"/>
@@ -1460,8 +1569,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="1"/>
       <c r="C28" s="18"/>
@@ -1469,8 +1581,11 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="1"/>
       <c r="C29" s="18"/>
@@ -1478,8 +1593,11 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="1"/>
       <c r="C30" s="18"/>
@@ -1487,8 +1605,11 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="1"/>
       <c r="C31" s="18"/>
@@ -1496,8 +1617,11 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="1"/>
       <c r="C32" s="18"/>
@@ -1505,8 +1629,11 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="1"/>
       <c r="C33" s="18"/>
@@ -1514,8 +1641,11 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="1"/>
       <c r="C34" s="18"/>
@@ -1523,8 +1653,11 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="1"/>
       <c r="C35" s="18"/>
@@ -1532,8 +1665,11 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="1"/>
       <c r="C36" s="18"/>
@@ -1541,8 +1677,11 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="1"/>
       <c r="C37" s="18"/>
@@ -1550,8 +1689,11 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="1"/>
       <c r="C38" s="18"/>
@@ -1559,8 +1701,11 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="1"/>
       <c r="C39" s="18"/>
@@ -1568,8 +1713,11 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="1"/>
       <c r="C40" s="18"/>
@@ -1577,8 +1725,11 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="1"/>
       <c r="C41" s="18"/>
@@ -1586,8 +1737,11 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="18"/>
@@ -1595,8 +1749,11 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="1"/>
       <c r="C43" s="18"/>
@@ -1604,8 +1761,11 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="1"/>
       <c r="C44" s="18"/>
@@ -1613,8 +1773,11 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="1"/>
       <c r="C45" s="18"/>
@@ -1622,8 +1785,11 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="1"/>
       <c r="C46" s="18"/>
@@ -1631,8 +1797,11 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="1"/>
       <c r="C47" s="18"/>
@@ -1640,8 +1809,11 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="1"/>
       <c r="C48" s="18"/>
@@ -1649,8 +1821,11 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="1"/>
       <c r="C49" s="18"/>
@@ -1658,8 +1833,11 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="1"/>
       <c r="C50" s="18"/>
@@ -1667,8 +1845,11 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="1"/>
       <c r="C51" s="18"/>
@@ -1676,8 +1857,11 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="1"/>
       <c r="C52" s="18"/>
@@ -1685,8 +1869,11 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="1"/>
       <c r="C53" s="18"/>
@@ -1694,8 +1881,11 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="1"/>
       <c r="C54" s="18"/>
@@ -1703,8 +1893,11 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="1"/>
       <c r="C55" s="18"/>
@@ -1712,9 +1905,13 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I7:N7"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -1723,15 +1920,14 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E7" xr:uid="{01945874-0008-4282-B6C2-E625359907CC}">
       <formula1>"auto select, linear drift, quadratic drift, cubic drift"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{CC1A72B7-6B51-40F3-85D2-3A3CBAB31B11}">
       <formula1>"NO, YES"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1742,112 +1938,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B5">
         <v>10000</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B6">
         <v>10000</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1857,331 +2044,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90266-F043-49C4-8086-1A7429301C9B}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="C2" s="28">
+        <v>1.3238097000000001E-2</v>
+      </c>
+      <c r="D2" s="29">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.9076542E-2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1.3238097000000001E-2</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C4" s="36">
+        <v>-3.0811903000000002E-2</v>
+      </c>
+      <c r="D4" s="37">
         <v>26</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E4">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="33">
+        <v>3.9097021000000003E-2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>26</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2.9076542E-2</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="F5" s="39"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="33">
+        <v>-0.11582920100000001</v>
+      </c>
+      <c r="D6" s="31">
         <v>26</v>
       </c>
-      <c r="E3" s="35">
-        <v>-1.9910000000000001</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="N3" s="43"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="40">
-        <v>-3.0811903000000002E-2</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="E6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.11409791</v>
+      </c>
+      <c r="D7" s="31">
         <v>26</v>
       </c>
-      <c r="E4" s="35">
-        <v>-1.9910000000000001</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="N4" s="43"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="E7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="37">
-        <v>3.9097021000000003E-2</v>
-      </c>
-      <c r="D5" s="34">
+      <c r="B8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3.5127347000000003E-2</v>
+      </c>
+      <c r="D8" s="29">
         <v>26</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="N5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="F8" s="39"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="37">
-        <v>-0.11582920100000001</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="C9" s="33">
+        <v>-8.2610208000000004E-2</v>
+      </c>
+      <c r="D9" s="31">
         <v>26</v>
       </c>
-      <c r="E6" s="35">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="E9">
+        <v>-5.5190000000000001</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0.11409791</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="B10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="36">
+        <v>8.0867791999999994E-2</v>
+      </c>
+      <c r="D10" s="37">
         <v>26</v>
       </c>
-      <c r="E7" s="35">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="N7" s="43"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="E10">
+        <v>-5.5190000000000001</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="31">
-        <v>3.5127347000000003E-2</v>
-      </c>
-      <c r="D8" s="32">
+      <c r="B11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="33">
+        <v>4.0836667E-2</v>
+      </c>
+      <c r="D11" s="31">
         <v>26</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="N8" s="43"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="F11" s="39"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="37">
-        <v>-8.2610208000000004E-2</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C12" s="33">
+        <v>-1.2726667000000001E-2</v>
+      </c>
+      <c r="D12" s="31">
         <v>26</v>
       </c>
-      <c r="E9" s="35">
-        <v>-5.5190000000000001</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="N9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="E12">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="40">
-        <v>8.0867791999999994E-2</v>
-      </c>
-      <c r="D10" s="41">
+      <c r="B13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1.1004814999999999E-2</v>
+      </c>
+      <c r="D13" s="31">
         <v>26</v>
       </c>
-      <c r="E10" s="35">
-        <v>-5.5190000000000001</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="N10" s="43"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
+      <c r="E13">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="37">
-        <v>4.0836667E-2</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="B14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.14725275500000001</v>
+      </c>
+      <c r="D14" s="29">
         <v>26</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="N11" s="43"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="F14" s="39"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="37">
-        <v>-1.2726667000000001E-2</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C15" s="33">
+        <v>0.100496088</v>
+      </c>
+      <c r="D15" s="31">
         <v>26</v>
       </c>
-      <c r="E12" s="35">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="N12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="E15">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1.1004814999999999E-2</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="36">
+        <v>-0.10222206</v>
+      </c>
+      <c r="D16" s="37">
         <v>26</v>
       </c>
-      <c r="E13" s="35">
-        <v>4.7629999999999999</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="31">
-        <v>0.14725275500000001</v>
-      </c>
-      <c r="D14" s="32">
-        <v>26</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="N14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="37">
-        <v>0.100496088</v>
-      </c>
-      <c r="D15" s="34">
-        <v>26</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="E16">
         <v>2.7029999999999998</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="N15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="40">
-        <v>-0.10222206</v>
-      </c>
-      <c r="D16" s="41">
-        <v>26</v>
-      </c>
-      <c r="E16" s="35">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="N16" s="43"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="35"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="44"/>
+      <c r="F16" s="39"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2190,66 +2372,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D148F2-7C3F-4D51-BA01-6094ADD4F25D}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
       <c r="B2">
         <v>10000</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="40">
         <v>10000.085866240001</v>
       </c>
       <c r="F2">
@@ -2265,7 +2447,7 @@
         <f>G2/1000</f>
         <v>0.84191300000000002</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2">
         <v>0.84191399999999994</v>
       </c>
       <c r="M2">
@@ -2273,18 +2455,18 @@
         <v>-9.9999999991773336E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="40">
         <v>10000.044098218001</v>
       </c>
       <c r="F3">
@@ -2296,30 +2478,30 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3">
         <f t="shared" ref="K3:K11" si="0">G3/1000</f>
         <v>0.84255400000000003</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3">
         <v>0.84255400000000003</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3">
         <f t="shared" ref="M3:M11" si="1">K3-L3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
       <c r="B4">
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="40">
         <v>10000.015992981</v>
       </c>
       <c r="F4">
@@ -2331,30 +2513,30 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.85037400000000007</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4">
         <v>0.85037368837708471</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4">
         <f t="shared" si="1"/>
         <v>3.116229153610206E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="40">
         <v>10000.150514306</v>
       </c>
       <c r="F5">
@@ -2366,30 +2548,30 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>64.186025999999998</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5">
         <v>64.18602605707224</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>-5.7072242043432198E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
       <c r="B6">
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <v>9999.9027681660009</v>
       </c>
       <c r="F6">
@@ -2401,30 +2583,30 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.84190599999999993</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6">
         <v>0.84190599999999993</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="40">
         <v>10000.016499648</v>
       </c>
       <c r="F7">
@@ -2436,30 +2618,30 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>28.814467</v>
       </c>
       <c r="L7">
         <v>28.814466884851551</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7">
         <f t="shared" si="1"/>
         <v>1.1514844899807031E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8">
         <v>10000</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="40">
         <v>9999.9741830179992</v>
       </c>
       <c r="F8">
@@ -2471,30 +2653,30 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0.84190900000000002</v>
       </c>
       <c r="L8">
         <v>0.84190799999999999</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8">
         <f t="shared" si="1"/>
         <v>1.0000000000287557E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9">
         <v>10000</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="40">
         <v>10000.042358572</v>
       </c>
       <c r="F9">
@@ -2506,30 +2688,30 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>43.836285000000004</v>
       </c>
       <c r="L9">
         <v>43.836285342311619</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>-3.423116154976924E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10">
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="40">
         <v>10000.119090796001</v>
       </c>
       <c r="F10">
@@ -2541,30 +2723,30 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>20.269239000000002</v>
       </c>
       <c r="L10">
         <v>20.26923914929991</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>-1.4929990754808387E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11">
         <v>10000</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <v>10000.038388898</v>
       </c>
       <c r="F11">
@@ -2576,30 +2758,30 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>20.842508000000002</v>
       </c>
       <c r="L11">
         <v>20.842508177843392</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11">
         <f t="shared" si="1"/>
         <v>-1.7784338979254244E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
       <c r="B12">
         <v>10000</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="46">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40">
         <v>10000.00499293</v>
       </c>
       <c r="F12">
@@ -2611,26 +2793,25 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13">
         <v>10000</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="46">
+        <v>94</v>
+      </c>
+      <c r="E13" s="40">
         <v>10000.003261551001</v>
       </c>
       <c r="F13">
@@ -2642,16 +2823,12 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
